--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,6 +1130,10 @@
   </si>
   <si>
     <t>DIO_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,7 +1375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1532,6 +1532,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2480,7 +2486,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2663,6 +2669,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3287,11 +3299,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomRight" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3630,7 +3642,7 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="10">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3705,7 +3717,7 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>303</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
@@ -3715,81 +3727,81 @@
         <v>26</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>170</v>
-      </c>
       <c r="N10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="T10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="U10" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="V10" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="W10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="W10" s="17" t="s">
+      <c r="X10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="Y10" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="Y10" s="17" t="s">
+      <c r="Z10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="Z10" s="17" t="s">
-        <v>170</v>
-      </c>
       <c r="AA10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="AB10" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="AC10" s="18"/>
       <c r="AD10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE10" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -3831,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -3908,7 +3920,7 @@
       </c>
       <c r="AC12" s="23"/>
       <c r="AD12" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE12" s="25">
         <v>8</v>
@@ -3922,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -4009,7 +4021,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
@@ -4096,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="21">
         <v>0</v>
@@ -4183,7 +4195,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="21">
         <v>1</v>
@@ -4270,7 +4282,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -4357,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="21">
         <v>1</v>
@@ -4444,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
@@ -4531,7 +4543,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D20" s="21">
         <v>0</v>
@@ -4618,7 +4630,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="21">
         <v>0</v>
@@ -4838,10 +4850,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" s="45">
         <v>1</v>
@@ -4925,10 +4937,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="45">
         <v>0</v>
@@ -4951,7 +4963,7 @@
       <c r="J27" s="47">
         <v>0</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="62">
         <v>1</v>
       </c>
       <c r="L27" s="45">
@@ -5012,10 +5024,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="45">
         <v>1</v>
@@ -5099,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="45">
         <v>1</v>
@@ -5186,10 +5198,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="45">
         <v>0</v>
@@ -5212,7 +5224,7 @@
       <c r="J30" s="47">
         <v>0</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="62">
         <v>1</v>
       </c>
       <c r="L30" s="45">
@@ -5273,10 +5285,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="45">
         <v>1</v>
@@ -5496,10 +5508,10 @@
         <v>119</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="45">
         <v>1</v>
@@ -5583,10 +5595,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="45">
         <v>1</v>
@@ -5670,10 +5682,10 @@
         <v>121</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="45">
         <v>0</v>
@@ -5757,10 +5769,10 @@
         <v>122</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" s="45">
         <v>1</v>
@@ -5844,10 +5856,10 @@
         <v>123</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="45">
         <v>1</v>
@@ -5931,10 +5943,10 @@
         <v>124</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41" s="45">
         <v>1</v>
@@ -6018,10 +6030,10 @@
         <v>125</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="45">
         <v>1</v>
@@ -6105,10 +6117,10 @@
         <v>126</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D43" s="45">
         <v>0</v>
@@ -6192,10 +6204,10 @@
         <v>127</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="45">
         <v>1</v>
@@ -6279,10 +6291,10 @@
         <v>128</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D45" s="45">
         <v>1</v>
@@ -6505,7 +6517,7 @@
         <v>31</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="45">
         <v>0</v>
@@ -6563,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="27">
         <v>0</v>
@@ -6592,7 +6604,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D51" s="45">
         <v>0</v>
@@ -6650,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="27">
         <v>0</v>
@@ -6679,7 +6691,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="45">
         <v>0</v>
@@ -6737,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="27">
         <v>0</v>
@@ -6766,7 +6778,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" s="45">
         <v>0</v>
@@ -6824,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="27">
         <v>0</v>
@@ -6853,7 +6865,7 @@
         <v>19</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="45">
         <v>0</v>
@@ -6911,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="27">
         <v>0</v>
@@ -6940,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="45">
         <v>0</v>
@@ -6998,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="27">
         <v>0</v>
@@ -7027,7 +7039,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" s="45">
         <v>0</v>
@@ -7085,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="27">
         <v>0</v>
@@ -7114,7 +7126,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57" s="45">
         <v>0</v>
@@ -7172,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="W57" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="27">
         <v>0</v>
@@ -7201,7 +7213,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D58" s="45">
         <v>0</v>
@@ -7259,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="27">
         <v>0</v>
@@ -7288,7 +7300,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D59" s="45">
         <v>0</v>
@@ -7375,7 +7387,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D60" s="45">
         <v>0</v>
@@ -7436,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60" s="26">
         <v>0</v>
@@ -7462,7 +7474,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="45">
         <v>0</v>
@@ -7486,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="45">
         <v>0</v>
@@ -7523,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="26">
         <v>0</v>
@@ -7685,7 +7697,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="45">
         <v>1</v>
@@ -7772,7 +7784,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="45">
         <v>0</v>
@@ -7859,7 +7871,7 @@
         <v>37</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="45">
         <v>0</v>
@@ -7882,8 +7894,8 @@
       <c r="J68" s="47">
         <v>0</v>
       </c>
-      <c r="K68" s="45">
-        <v>1</v>
+      <c r="K68" s="63">
+        <v>0</v>
       </c>
       <c r="L68" s="45">
         <v>0</v>
@@ -7946,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="45">
         <v>0</v>
@@ -8166,10 +8178,10 @@
         <v>81</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" s="45">
         <v>1</v>
@@ -8253,10 +8265,10 @@
         <v>82</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75" s="45">
         <v>1</v>
@@ -8340,10 +8352,10 @@
         <v>83</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" s="45">
         <v>1</v>
@@ -8427,10 +8439,10 @@
         <v>84</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D77" s="45">
         <v>1</v>
@@ -8514,10 +8526,10 @@
         <v>85</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D78" s="45">
         <v>1</v>
@@ -8601,10 +8613,10 @@
         <v>86</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D79" s="45">
         <v>1</v>
@@ -8688,10 +8700,10 @@
         <v>87</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D80" s="45">
         <v>1</v>
@@ -8775,10 +8787,10 @@
         <v>88</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D81" s="45">
         <v>1</v>
@@ -8862,10 +8874,10 @@
         <v>92</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D82" s="45">
         <v>1</v>
@@ -8949,10 +8961,10 @@
         <v>93</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="45">
         <v>1</v>
@@ -9036,10 +9048,10 @@
         <v>94</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D84" s="45">
         <v>1</v>
@@ -9123,10 +9135,10 @@
         <v>95</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D85" s="45">
         <v>1</v>
@@ -9346,10 +9358,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90" s="45">
         <v>0</v>
@@ -9426,7 +9438,7 @@
       </c>
       <c r="AC90" s="22"/>
       <c r="AD90" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE90" s="25">
         <v>8</v>
@@ -9437,10 +9449,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D91" s="45">
         <v>0</v>
@@ -9464,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="45">
         <v>0</v>
@@ -9524,10 +9536,10 @@
         <v>98</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" s="45">
         <v>1</v>
@@ -9551,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="45">
         <v>0</v>
@@ -9611,10 +9623,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="45">
         <v>1</v>
@@ -9638,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="45">
         <v>0</v>
@@ -9698,10 +9710,10 @@
         <v>104</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" s="45">
         <v>1</v>
@@ -9725,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="45">
         <v>0</v>
@@ -9785,10 +9797,10 @@
         <v>105</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" s="45">
         <v>1</v>
@@ -9812,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="45">
         <v>0</v>
@@ -9872,10 +9884,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D96" s="45">
         <v>1</v>
@@ -9899,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="45">
         <v>0</v>
@@ -9959,10 +9971,10 @@
         <v>107</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="45">
         <v>0</v>
@@ -10039,7 +10051,7 @@
       </c>
       <c r="AC97" s="22"/>
       <c r="AD97" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE97" s="25">
         <v>8</v>
@@ -10050,10 +10062,10 @@
         <v>108</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D98" s="45">
         <v>1</v>
@@ -10077,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" s="45">
         <v>0</v>
@@ -10137,10 +10149,10 @@
         <v>109</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="45">
         <v>0</v>
@@ -10164,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="45">
         <v>0</v>
@@ -10224,10 +10236,10 @@
         <v>110</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D100" s="45">
         <v>0</v>
@@ -10304,7 +10316,7 @@
       </c>
       <c r="AC100" s="22"/>
       <c r="AD100" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE100" s="25">
         <v>8</v>
@@ -10315,10 +10327,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" s="45">
         <v>0</v>
@@ -10395,7 +10407,7 @@
       </c>
       <c r="AC101" s="22"/>
       <c r="AD101" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AE101" s="25">
         <v>8</v>
@@ -10476,10 +10488,10 @@
         <v>75</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D106" s="60">
         <v>1</v>
@@ -10518,40 +10530,40 @@
         <v>0</v>
       </c>
       <c r="P106" s="22"/>
-      <c r="Q106" s="26">
-        <v>0</v>
-      </c>
-      <c r="R106" s="26">
-        <v>0</v>
-      </c>
-      <c r="S106" s="26">
-        <v>0</v>
-      </c>
-      <c r="T106" s="27">
-        <v>0</v>
-      </c>
-      <c r="U106" s="27">
-        <v>0</v>
-      </c>
-      <c r="V106" s="28">
-        <v>0</v>
-      </c>
-      <c r="W106" s="28">
-        <v>0</v>
-      </c>
-      <c r="X106" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB106" s="26">
+      <c r="Q106" s="60">
+        <v>1</v>
+      </c>
+      <c r="R106" s="60">
+        <v>0</v>
+      </c>
+      <c r="S106" s="60">
+        <v>0</v>
+      </c>
+      <c r="T106" s="60">
+        <v>0</v>
+      </c>
+      <c r="U106" s="60">
+        <v>0</v>
+      </c>
+      <c r="V106" s="60">
+        <v>0</v>
+      </c>
+      <c r="W106" s="60">
+        <v>0</v>
+      </c>
+      <c r="X106" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="60">
         <v>0</v>
       </c>
       <c r="AC106" s="22"/>
@@ -10563,10 +10575,10 @@
         <v>74</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D107" s="60">
         <v>1</v>
@@ -10605,40 +10617,40 @@
         <v>0</v>
       </c>
       <c r="P107" s="22"/>
-      <c r="Q107" s="26">
-        <v>0</v>
-      </c>
-      <c r="R107" s="26">
-        <v>0</v>
-      </c>
-      <c r="S107" s="26">
-        <v>0</v>
-      </c>
-      <c r="T107" s="27">
-        <v>0</v>
-      </c>
-      <c r="U107" s="27">
-        <v>0</v>
-      </c>
-      <c r="V107" s="28">
-        <v>0</v>
-      </c>
-      <c r="W107" s="28">
-        <v>0</v>
-      </c>
-      <c r="X107" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y107" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="26">
+      <c r="Q107" s="60">
+        <v>1</v>
+      </c>
+      <c r="R107" s="60">
+        <v>0</v>
+      </c>
+      <c r="S107" s="60">
+        <v>0</v>
+      </c>
+      <c r="T107" s="60">
+        <v>0</v>
+      </c>
+      <c r="U107" s="60">
+        <v>0</v>
+      </c>
+      <c r="V107" s="60">
+        <v>0</v>
+      </c>
+      <c r="W107" s="60">
+        <v>0</v>
+      </c>
+      <c r="X107" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="60">
         <v>0</v>
       </c>
       <c r="AC107" s="22"/>
@@ -10650,10 +10662,10 @@
         <v>73</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D108" s="60">
         <v>1</v>
@@ -10692,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="P108" s="22"/>
-      <c r="Q108" s="26">
-        <v>0</v>
-      </c>
-      <c r="R108" s="26">
-        <v>0</v>
-      </c>
-      <c r="S108" s="26">
-        <v>0</v>
-      </c>
-      <c r="T108" s="27">
-        <v>0</v>
-      </c>
-      <c r="U108" s="27">
-        <v>0</v>
-      </c>
-      <c r="V108" s="28">
-        <v>0</v>
-      </c>
-      <c r="W108" s="28">
-        <v>0</v>
-      </c>
-      <c r="X108" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="26">
+      <c r="Q108" s="60">
+        <v>1</v>
+      </c>
+      <c r="R108" s="60">
+        <v>1</v>
+      </c>
+      <c r="S108" s="60">
+        <v>1</v>
+      </c>
+      <c r="T108" s="60">
+        <v>0</v>
+      </c>
+      <c r="U108" s="60">
+        <v>0</v>
+      </c>
+      <c r="V108" s="61">
+        <v>0</v>
+      </c>
+      <c r="W108" s="61">
+        <v>1</v>
+      </c>
+      <c r="X108" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="60">
         <v>0</v>
       </c>
       <c r="AC108" s="22"/>
@@ -10737,10 +10749,10 @@
         <v>72</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D109" s="60">
         <v>1</v>
@@ -10779,40 +10791,40 @@
         <v>0</v>
       </c>
       <c r="P109" s="22"/>
-      <c r="Q109" s="26">
-        <v>0</v>
-      </c>
-      <c r="R109" s="26">
-        <v>0</v>
-      </c>
-      <c r="S109" s="26">
-        <v>0</v>
-      </c>
-      <c r="T109" s="27">
-        <v>0</v>
-      </c>
-      <c r="U109" s="27">
-        <v>0</v>
-      </c>
-      <c r="V109" s="28">
-        <v>0</v>
-      </c>
-      <c r="W109" s="28">
-        <v>0</v>
-      </c>
-      <c r="X109" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB109" s="26">
+      <c r="Q109" s="60">
+        <v>1</v>
+      </c>
+      <c r="R109" s="60">
+        <v>1</v>
+      </c>
+      <c r="S109" s="60">
+        <v>1</v>
+      </c>
+      <c r="T109" s="60">
+        <v>0</v>
+      </c>
+      <c r="U109" s="60">
+        <v>0</v>
+      </c>
+      <c r="V109" s="61">
+        <v>0</v>
+      </c>
+      <c r="W109" s="61">
+        <v>1</v>
+      </c>
+      <c r="X109" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="60">
         <v>0</v>
       </c>
       <c r="AC109" s="22"/>
@@ -10824,10 +10836,10 @@
         <v>71</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D110" s="60">
         <v>1</v>
@@ -10866,40 +10878,40 @@
         <v>0</v>
       </c>
       <c r="P110" s="22"/>
-      <c r="Q110" s="26">
-        <v>0</v>
-      </c>
-      <c r="R110" s="26">
-        <v>0</v>
-      </c>
-      <c r="S110" s="26">
-        <v>0</v>
-      </c>
-      <c r="T110" s="27">
-        <v>0</v>
-      </c>
-      <c r="U110" s="27">
-        <v>0</v>
-      </c>
-      <c r="V110" s="28">
-        <v>0</v>
-      </c>
-      <c r="W110" s="28">
-        <v>0</v>
-      </c>
-      <c r="X110" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="26">
+      <c r="Q110" s="60">
+        <v>1</v>
+      </c>
+      <c r="R110" s="60">
+        <v>1</v>
+      </c>
+      <c r="S110" s="60">
+        <v>1</v>
+      </c>
+      <c r="T110" s="60">
+        <v>0</v>
+      </c>
+      <c r="U110" s="60">
+        <v>0</v>
+      </c>
+      <c r="V110" s="61">
+        <v>0</v>
+      </c>
+      <c r="W110" s="61">
+        <v>1</v>
+      </c>
+      <c r="X110" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="60">
         <v>0</v>
       </c>
       <c r="AC110" s="22"/>
@@ -10911,10 +10923,10 @@
         <v>70</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D111" s="60">
         <v>1</v>
@@ -10953,40 +10965,40 @@
         <v>0</v>
       </c>
       <c r="P111" s="22"/>
-      <c r="Q111" s="26">
-        <v>0</v>
-      </c>
-      <c r="R111" s="26">
-        <v>0</v>
-      </c>
-      <c r="S111" s="26">
-        <v>0</v>
-      </c>
-      <c r="T111" s="27">
-        <v>0</v>
-      </c>
-      <c r="U111" s="27">
-        <v>0</v>
-      </c>
-      <c r="V111" s="28">
-        <v>0</v>
-      </c>
-      <c r="W111" s="28">
-        <v>0</v>
-      </c>
-      <c r="X111" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z111" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB111" s="26">
+      <c r="Q111" s="60">
+        <v>1</v>
+      </c>
+      <c r="R111" s="60">
+        <v>1</v>
+      </c>
+      <c r="S111" s="60">
+        <v>1</v>
+      </c>
+      <c r="T111" s="60">
+        <v>0</v>
+      </c>
+      <c r="U111" s="60">
+        <v>0</v>
+      </c>
+      <c r="V111" s="61">
+        <v>0</v>
+      </c>
+      <c r="W111" s="61">
+        <v>1</v>
+      </c>
+      <c r="X111" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="60">
         <v>0</v>
       </c>
       <c r="AC111" s="22"/>
@@ -10998,10 +11010,10 @@
         <v>69</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D112" s="45">
         <v>0</v>
@@ -11085,10 +11097,10 @@
         <v>68</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D113" s="45">
         <v>0</v>
@@ -11172,10 +11184,10 @@
         <v>67</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D114" s="45">
         <v>0</v>
@@ -11252,7 +11264,7 @@
       </c>
       <c r="AC114" s="22"/>
       <c r="AD114" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE114" s="25">
         <v>8</v>
@@ -11263,10 +11275,10 @@
         <v>66</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D115" s="45">
         <v>0</v>
@@ -11343,7 +11355,7 @@
       </c>
       <c r="AC115" s="22"/>
       <c r="AD115" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE115" s="49">
         <v>8</v>
@@ -11422,10 +11434,10 @@
         <v>167</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D120" s="45">
         <v>1</v>
@@ -11509,10 +11521,10 @@
         <v>166</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D121" s="45">
         <v>1</v>
@@ -11596,10 +11608,10 @@
         <v>165</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D122" s="45">
         <v>1</v>
@@ -11683,10 +11695,10 @@
         <v>164</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D123" s="45">
         <v>1</v>
@@ -11770,10 +11782,10 @@
         <v>163</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D124" s="45">
         <v>1</v>
@@ -11857,10 +11869,10 @@
         <v>162</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D125" s="45">
         <v>1</v>
@@ -11944,10 +11956,10 @@
         <v>161</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D126" s="45">
         <v>1</v>
@@ -12031,10 +12043,10 @@
         <v>158</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D127" s="45">
         <v>1</v>
@@ -12118,10 +12130,10 @@
         <v>157</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D128" s="45">
         <v>1</v>
@@ -12205,10 +12217,10 @@
         <v>156</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D129" s="45">
         <v>1</v>
@@ -12292,10 +12304,10 @@
         <v>155</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D130" s="45">
         <v>0</v>
@@ -12379,10 +12391,10 @@
         <v>154</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D131" s="45">
         <v>0</v>
@@ -12466,10 +12478,10 @@
         <v>153</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D132" s="45">
         <v>0</v>
@@ -12553,10 +12565,10 @@
         <v>152</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D133" s="45">
         <v>0</v>
@@ -12640,10 +12652,10 @@
         <v>151</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D134" s="45">
         <v>0</v>
@@ -12727,10 +12739,10 @@
         <v>150</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D135" s="45">
         <v>0</v>
@@ -12882,10 +12894,10 @@
         <v>35</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D140" s="45">
         <v>0</v>
@@ -12909,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" s="45">
         <v>0</v>
@@ -12969,10 +12981,10 @@
         <v>34</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D141" s="45">
         <v>0</v>
@@ -12996,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" s="45">
         <v>0</v>
@@ -13124,10 +13136,10 @@
         <v>63</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D146" s="45">
         <v>1</v>
@@ -13211,10 +13223,10 @@
         <v>62</v>
       </c>
       <c r="B147" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D147" s="45">
         <v>1</v>
@@ -13298,10 +13310,10 @@
         <v>61</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D148" s="45">
         <v>1</v>
@@ -13385,10 +13397,10 @@
         <v>60</v>
       </c>
       <c r="B149" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D149" s="45">
         <v>1</v>
@@ -13472,10 +13484,10 @@
         <v>59</v>
       </c>
       <c r="B150" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D150" s="45">
         <v>1</v>
@@ -13559,10 +13571,10 @@
         <v>58</v>
       </c>
       <c r="B151" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D151" s="45">
         <v>1</v>
@@ -13646,10 +13658,10 @@
         <v>57</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D152" s="45">
         <v>1</v>
@@ -13733,10 +13745,10 @@
         <v>56</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D153" s="45">
         <v>1</v>
@@ -13820,10 +13832,10 @@
         <v>55</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D154" s="45">
         <v>1</v>
@@ -13907,10 +13919,10 @@
         <v>52</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D155" s="45">
         <v>1</v>
@@ -13994,10 +14006,10 @@
         <v>51</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D156" s="45">
         <v>1</v>
@@ -14081,10 +14093,10 @@
         <v>50</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D157" s="45">
         <v>1</v>
@@ -14238,10 +14250,10 @@
         <v>49</v>
       </c>
       <c r="B162" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D162" s="45">
         <v>1</v>
@@ -14325,10 +14337,10 @@
         <v>48</v>
       </c>
       <c r="B163" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D163" s="45">
         <v>1</v>
@@ -14412,10 +14424,10 @@
         <v>47</v>
       </c>
       <c r="B164" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D164" s="45">
         <v>1</v>
@@ -14499,10 +14511,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D165" s="45">
         <v>1</v>
@@ -14586,10 +14598,10 @@
         <v>45</v>
       </c>
       <c r="B166" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D166" s="45">
         <v>1</v>
@@ -14673,10 +14685,10 @@
         <v>44</v>
       </c>
       <c r="B167" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D167" s="45">
         <v>1</v>
@@ -14760,10 +14772,10 @@
         <v>43</v>
       </c>
       <c r="B168" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D168" s="45">
         <v>1</v>
@@ -14847,10 +14859,10 @@
         <v>42</v>
       </c>
       <c r="B169" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D169" s="45">
         <v>1</v>
@@ -14934,10 +14946,10 @@
         <v>41</v>
       </c>
       <c r="B170" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D170" s="45">
         <v>1</v>
@@ -15021,10 +15033,10 @@
         <v>40</v>
       </c>
       <c r="B171" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D171" s="45">
         <v>1</v>
@@ -15108,10 +15120,10 @@
         <v>39</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D172" s="45">
         <v>1</v>
@@ -15195,10 +15207,10 @@
         <v>38</v>
       </c>
       <c r="B173" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D173" s="45">
         <v>1</v>
@@ -15282,10 +15294,10 @@
         <v>37</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D174" s="45">
         <v>1</v>
@@ -15369,10 +15381,10 @@
         <v>36</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D175" s="45">
         <v>1</v>
@@ -15526,10 +15538,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D180" s="21">
         <v>0</v>
@@ -15613,10 +15625,10 @@
         <v>4</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D181" s="21">
         <v>0</v>
@@ -15700,10 +15712,10 @@
         <v>3</v>
       </c>
       <c r="B182" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D182" s="21">
         <v>0</v>
@@ -15787,10 +15799,10 @@
         <v>2</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D183" s="21">
         <v>0</v>
@@ -15874,10 +15886,10 @@
         <v>1</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D184" s="21">
         <v>0</v>
@@ -15961,10 +15973,10 @@
         <v>176</v>
       </c>
       <c r="B185" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D185" s="21">
         <v>0</v>
@@ -16110,7 +16122,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AG1 L8:Q8 E8:J8 D9:O9 D1:O7 Q1:Q7 Q11:AB1048576 Q9 R1:AB9 D11:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AG1 L8:Q8 E8:J8 D9:O9 D1:O7 Q1:Q7 D11:O1048576 Q9 R1:AB9 Q11:AB1048576">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16222,6 +16234,9 @@
     <hyperlink ref="L106:L108" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="L107:L111" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="J106:J107" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
+    <hyperlink ref="Y106:Y108" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
+    <hyperlink ref="Y107:Y111" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
+    <hyperlink ref="W106:W107" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -16283,10 +16298,10 @@
     </row>
     <row r="5" spans="2:5" ht="15">
       <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>48</v>
@@ -16297,13 +16312,13 @@
     </row>
     <row r="6" spans="2:5" ht="15">
       <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E6" s="5">
         <v>42486</v>
@@ -16311,13 +16326,13 @@
     </row>
     <row r="7" spans="2:5" ht="15">
       <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="5">
         <v>42486</v>

--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -2826,10 +2826,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3826,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="26">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="26">
         <v>0</v>
@@ -7261,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="I66" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="59">
         <v>0</v>
@@ -7352,10 +7352,10 @@
         <v>1</v>
       </c>
       <c r="I67" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="59">
         <v>0</v>
@@ -10225,10 +10225,10 @@
         <v>0</v>
       </c>
       <c r="I108" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="57">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="I109" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="57">
         <v>0</v>
@@ -10399,10 +10399,10 @@
         <v>0</v>
       </c>
       <c r="I110" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="57">
         <v>0</v>
@@ -10486,10 +10486,10 @@
         <v>0</v>
       </c>
       <c r="I111" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="57">
         <v>0</v>
@@ -10989,10 +10989,10 @@
         <v>1</v>
       </c>
       <c r="I120" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="57">
         <v>0</v>
@@ -11076,10 +11076,10 @@
         <v>1</v>
       </c>
       <c r="I121" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="57">
         <v>0</v>
@@ -11163,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="I122" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="57">
         <v>0</v>
@@ -11250,10 +11250,10 @@
         <v>1</v>
       </c>
       <c r="I123" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="57">
         <v>0</v>
@@ -11337,10 +11337,10 @@
         <v>1</v>
       </c>
       <c r="I124" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="57">
         <v>0</v>
@@ -11424,10 +11424,10 @@
         <v>1</v>
       </c>
       <c r="I125" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="57">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>1</v>
       </c>
       <c r="I126" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="57">
         <v>0</v>
@@ -11598,10 +11598,10 @@
         <v>1</v>
       </c>
       <c r="I127" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="57">
         <v>0</v>
@@ -11685,10 +11685,10 @@
         <v>1</v>
       </c>
       <c r="I128" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="57">
         <v>0</v>
@@ -15656,7 +15656,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AG1 L8:Q8 E8:J8 D9:O9 D1:O7 Q1:Q7 D11:O1048576 Q9 R1:AB9 Q11:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AG1 L8:Q8 E8:J8 D9:O9 D1:O7 Q1:Q7 Q11:AB1048576 Q9 R1:AB9 D11:O1048576">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16079,13 +16079,161 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:L10">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -652,9 +652,6 @@
     <t>QSPI_SCK</t>
   </si>
   <si>
-    <t>QSPI_CS</t>
-  </si>
-  <si>
     <t>QSPI_IO0</t>
   </si>
   <si>
@@ -1064,6 +1061,10 @@
   </si>
   <si>
     <t>DIO_08</t>
+  </si>
+  <si>
+    <t>QSPI_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2826,10 +2827,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3256,28 +3257,28 @@
         <v>51</v>
       </c>
       <c r="F10" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="H10" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="I10" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="J10" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="K10" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="L10" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="M10" s="53" t="s">
         <v>277</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>278</v>
       </c>
       <c r="N10" s="53" t="s">
         <v>96</v>
@@ -3293,28 +3294,28 @@
         <v>51</v>
       </c>
       <c r="S10" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="T10" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="T10" s="53" t="s">
+      <c r="U10" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="U10" s="53" t="s">
+      <c r="V10" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="V10" s="53" t="s">
+      <c r="W10" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="W10" s="53" t="s">
+      <c r="X10" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="X10" s="53" t="s">
+      <c r="Y10" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="Y10" s="53" t="s">
+      <c r="Z10" s="53" t="s">
         <v>277</v>
-      </c>
-      <c r="Z10" s="53" t="s">
-        <v>278</v>
       </c>
       <c r="AA10" s="53" t="s">
         <v>96</v>
@@ -3446,7 +3447,7 @@
       </c>
       <c r="AC12" s="43"/>
       <c r="AD12" s="61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE12" s="64">
         <v>8</v>
@@ -3547,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
@@ -3634,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -3895,7 +3896,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -3982,7 +3983,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -4069,7 +4070,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -4156,7 +4157,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="26">
         <v>0</v>
@@ -4379,7 +4380,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26" s="26">
         <v>0</v>
@@ -4456,7 +4457,7 @@
       </c>
       <c r="AC26" s="43"/>
       <c r="AD26" s="61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE26" s="64">
         <v>8</v>
@@ -4470,7 +4471,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27" s="26">
         <v>0</v>
@@ -4547,7 +4548,7 @@
       </c>
       <c r="AC27" s="43"/>
       <c r="AD27" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE27" s="64">
         <v>8</v>
@@ -4561,7 +4562,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="26">
         <v>0</v>
@@ -4638,7 +4639,7 @@
       </c>
       <c r="AC28" s="43"/>
       <c r="AD28" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AE28" s="65">
         <v>8</v>
@@ -4652,7 +4653,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="26">
         <v>0</v>
@@ -4739,7 +4740,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="26">
         <v>0</v>
@@ -4826,7 +4827,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="26">
         <v>0</v>
@@ -5223,7 +5224,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="26">
         <v>0</v>
@@ -5658,7 +5659,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="26">
         <v>0</v>
@@ -5832,7 +5833,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D45" s="26">
         <v>0</v>
@@ -6838,7 +6839,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="57">
         <v>0</v>
@@ -6925,7 +6926,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D60" s="57">
         <v>0</v>
@@ -7002,7 +7003,7 @@
       </c>
       <c r="AC60" s="43"/>
       <c r="AD60" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE60" s="64">
         <v>8</v>
@@ -7016,7 +7017,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="57">
         <v>0</v>
@@ -7093,7 +7094,7 @@
       </c>
       <c r="AC61" s="43"/>
       <c r="AD61" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE61" s="64">
         <v>8</v>
@@ -7320,7 +7321,7 @@
       </c>
       <c r="AC66" s="43"/>
       <c r="AD66" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE66" s="64">
         <v>8</v>
@@ -7411,7 +7412,7 @@
       </c>
       <c r="AC67" s="43"/>
       <c r="AD67" s="62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE67" s="64">
         <v>8</v>
@@ -7735,7 +7736,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D74" s="57">
         <v>1</v>
@@ -7744,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="57">
         <v>0</v>
@@ -7822,7 +7823,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="57">
         <v>1</v>
@@ -7831,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="57">
         <v>0</v>
@@ -7909,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D76" s="57">
         <v>1</v>
@@ -7918,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="57">
         <v>0</v>
@@ -7996,7 +7997,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D77" s="57">
         <v>1</v>
@@ -8005,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="57">
         <v>0</v>
@@ -8083,7 +8084,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D78" s="57">
         <v>1</v>
@@ -8092,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="57">
         <v>0</v>
@@ -8170,7 +8171,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D79" s="57">
         <v>1</v>
@@ -8179,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="57">
         <v>0</v>
@@ -8257,7 +8258,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D80" s="57">
         <v>1</v>
@@ -8266,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="57">
         <v>0</v>
@@ -8344,7 +8345,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D81" s="57">
         <v>1</v>
@@ -8353,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="57">
         <v>0</v>
@@ -8431,7 +8432,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D82" s="57">
         <v>1</v>
@@ -8440,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="57">
         <v>0</v>
@@ -8518,7 +8519,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D83" s="57">
         <v>1</v>
@@ -8527,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="57">
         <v>0</v>
@@ -8605,7 +8606,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D84" s="57">
         <v>1</v>
@@ -8614,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="57">
         <v>0</v>
@@ -8692,7 +8693,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D85" s="57">
         <v>1</v>
@@ -8701,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="57">
         <v>0</v>
@@ -8915,7 +8916,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="57">
         <v>0</v>
@@ -8992,7 +8993,7 @@
       </c>
       <c r="AC90" s="49"/>
       <c r="AD90" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE90" s="64">
         <v>8</v>
@@ -9006,7 +9007,7 @@
         <v>82</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="57">
         <v>0</v>
@@ -9528,7 +9529,7 @@
         <v>91</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D97" s="57">
         <v>0</v>
@@ -9702,7 +9703,7 @@
         <v>93</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D99" s="57">
         <v>0</v>
@@ -9789,7 +9790,7 @@
         <v>94</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D100" s="57">
         <v>0</v>
@@ -9876,7 +9877,7 @@
         <v>95</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D101" s="57">
         <v>0</v>
@@ -10042,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="57">
         <v>0</v>
@@ -10120,7 +10121,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="D107" s="57">
         <v>1</v>
@@ -10129,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="57">
         <v>0</v>
@@ -10207,7 +10208,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" s="57">
         <v>1</v>
@@ -10294,7 +10295,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -10381,7 +10382,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" s="57">
         <v>1</v>
@@ -10468,7 +10469,7 @@
         <v>103</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" s="57">
         <v>1</v>
@@ -10555,7 +10556,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D112" s="57">
         <v>0</v>
@@ -10642,7 +10643,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D113" s="57">
         <v>0</v>
@@ -10729,7 +10730,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D114" s="57">
         <v>0</v>
@@ -10816,7 +10817,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D115" s="57">
         <v>0</v>
@@ -10971,7 +10972,7 @@
         <v>108</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D120" s="57">
         <v>1</v>
@@ -11058,7 +11059,7 @@
         <v>109</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D121" s="57">
         <v>1</v>
@@ -11145,7 +11146,7 @@
         <v>110</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D122" s="57">
         <v>1</v>
@@ -11232,7 +11233,7 @@
         <v>111</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D123" s="57">
         <v>1</v>
@@ -11319,7 +11320,7 @@
         <v>112</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D124" s="57">
         <v>1</v>
@@ -11406,7 +11407,7 @@
         <v>113</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D125" s="57">
         <v>1</v>
@@ -11493,7 +11494,7 @@
         <v>114</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D126" s="57">
         <v>1</v>
@@ -11580,7 +11581,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D127" s="57">
         <v>1</v>
@@ -11667,7 +11668,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="57">
         <v>1</v>
@@ -11754,7 +11755,7 @@
         <v>117</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D129" s="57">
         <v>0</v>
@@ -11841,7 +11842,7 @@
         <v>119</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D130" s="57">
         <v>0</v>
@@ -11928,7 +11929,7 @@
         <v>120</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" s="57">
         <v>0</v>
@@ -12015,7 +12016,7 @@
         <v>121</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" s="57">
         <v>0</v>
@@ -12102,7 +12103,7 @@
         <v>122</v>
       </c>
       <c r="C133" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D133" s="57">
         <v>0</v>
@@ -12189,7 +12190,7 @@
         <v>123</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D134" s="57">
         <v>0</v>
@@ -12276,7 +12277,7 @@
         <v>124</v>
       </c>
       <c r="C135" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" s="57">
         <v>0</v>
@@ -12431,7 +12432,7 @@
         <v>125</v>
       </c>
       <c r="C140" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D140" s="57">
         <v>0</v>
@@ -12518,7 +12519,7 @@
         <v>118</v>
       </c>
       <c r="C141" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D141" s="57">
         <v>0</v>
@@ -12673,7 +12674,7 @@
         <v>126</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D146" s="57">
         <v>1</v>
@@ -12760,7 +12761,7 @@
         <v>127</v>
       </c>
       <c r="C147" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D147" s="57">
         <v>1</v>
@@ -12847,7 +12848,7 @@
         <v>128</v>
       </c>
       <c r="C148" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D148" s="57">
         <v>1</v>
@@ -12934,7 +12935,7 @@
         <v>129</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D149" s="57">
         <v>1</v>
@@ -13021,7 +13022,7 @@
         <v>130</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D150" s="57">
         <v>1</v>
@@ -13108,7 +13109,7 @@
         <v>131</v>
       </c>
       <c r="C151" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D151" s="57">
         <v>1</v>
@@ -13195,7 +13196,7 @@
         <v>132</v>
       </c>
       <c r="C152" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D152" s="57">
         <v>1</v>
@@ -13282,7 +13283,7 @@
         <v>133</v>
       </c>
       <c r="C153" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D153" s="57">
         <v>1</v>
@@ -13369,7 +13370,7 @@
         <v>134</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="57">
         <v>1</v>
@@ -13456,7 +13457,7 @@
         <v>135</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D155" s="57">
         <v>1</v>
@@ -13543,7 +13544,7 @@
         <v>137</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D156" s="57">
         <v>1</v>
@@ -13630,7 +13631,7 @@
         <v>138</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D157" s="57">
         <v>1</v>
@@ -13787,7 +13788,7 @@
         <v>139</v>
       </c>
       <c r="C162" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D162" s="57">
         <v>1</v>
@@ -13874,7 +13875,7 @@
         <v>136</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D163" s="57">
         <v>1</v>
@@ -13961,7 +13962,7 @@
         <v>140</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D164" s="57">
         <v>1</v>
@@ -14048,7 +14049,7 @@
         <v>141</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D165" s="57">
         <v>1</v>
@@ -14135,7 +14136,7 @@
         <v>142</v>
       </c>
       <c r="C166" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D166" s="57">
         <v>1</v>
@@ -14222,7 +14223,7 @@
         <v>143</v>
       </c>
       <c r="C167" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D167" s="57">
         <v>1</v>
@@ -14309,7 +14310,7 @@
         <v>144</v>
       </c>
       <c r="C168" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D168" s="57">
         <v>1</v>
@@ -14396,7 +14397,7 @@
         <v>145</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D169" s="57">
         <v>1</v>
@@ -14483,7 +14484,7 @@
         <v>146</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D170" s="57">
         <v>1</v>
@@ -14570,7 +14571,7 @@
         <v>147</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D171" s="57">
         <v>1</v>
@@ -14657,7 +14658,7 @@
         <v>148</v>
       </c>
       <c r="C172" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D172" s="57">
         <v>1</v>
@@ -14744,7 +14745,7 @@
         <v>149</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D173" s="57">
         <v>1</v>
@@ -14831,7 +14832,7 @@
         <v>150</v>
       </c>
       <c r="C174" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D174" s="57">
         <v>1</v>
@@ -14918,7 +14919,7 @@
         <v>151</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D175" s="57">
         <v>1</v>
@@ -15072,10 +15073,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D180" s="26">
         <v>0</v>
@@ -15159,10 +15160,10 @@
         <v>4</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D181" s="26">
         <v>0</v>
@@ -15246,10 +15247,10 @@
         <v>3</v>
       </c>
       <c r="B182" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D182" s="26">
         <v>0</v>
@@ -15333,10 +15334,10 @@
         <v>2</v>
       </c>
       <c r="B183" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D183" s="26">
         <v>0</v>
@@ -15420,10 +15421,10 @@
         <v>1</v>
       </c>
       <c r="B184" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D184" s="26">
         <v>0</v>
@@ -15507,10 +15508,10 @@
         <v>176</v>
       </c>
       <c r="B185" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D185" s="26">
         <v>0</v>

--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -3300,10 +3300,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="L78" sqref="L78"/>
+      <selection pane="bottomRight" activeCell="AE81" sqref="AE81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4856,10 +4856,10 @@
         <v>180</v>
       </c>
       <c r="D26" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="45">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="45">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="45">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="45">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="22">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>182</v>
       </c>
       <c r="D28" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="45">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="45">
         <v>0</v>
@@ -5117,10 +5117,10 @@
         <v>183</v>
       </c>
       <c r="D29" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="45">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="45">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="45">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="45">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="22">
         <v>0</v>
@@ -5291,10 +5291,10 @@
         <v>185</v>
       </c>
       <c r="D31" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="45">
         <v>0</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="45">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>212</v>
       </c>
       <c r="D92" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="45">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="47">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="45">
         <v>0</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y92" s="26">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>213</v>
       </c>
       <c r="D93" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="45">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="47">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="45">
         <v>0</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93" s="26">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>214</v>
       </c>
       <c r="D94" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="45">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="47">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="45">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94" s="26">
         <v>0</v>
@@ -9803,7 +9803,7 @@
         <v>215</v>
       </c>
       <c r="D95" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="45">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" s="47">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="45">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y95" s="26">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="47">
         <v>0</v>
@@ -9988,7 +9988,7 @@
       <c r="G97" s="46">
         <v>0</v>
       </c>
-      <c r="H97" s="46">
+      <c r="H97" s="45">
         <v>0</v>
       </c>
       <c r="I97" s="47">
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="47">
         <v>0</v>
@@ -16122,7 +16122,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AG1 L8:Q8 E8:J8 D9:O9 D1:O7 Q1:Q7 D11:O1048576 Q9 R1:AB9 Q11:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AG1 L8:Q8 E8:J8 D9:O9 D1:O7 Q1:Q7 Q11:AB1048576 Q9 R1:AB9 D11:O1048576">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -3300,10 +3300,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AE81" sqref="AE81"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="45">
         <v>0</v>

--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -700,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPEAKER_OUTPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SS_CTRL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SW5V_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V_CAN_STB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,376 +756,384 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CHARGE_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT_GAUGE_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT_POINTER_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT_POINTER_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT_GAUGE_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_PWM_CTRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARK_BRAKE_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BL_PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIGHT_PANEL_CTRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAKE_FLUID_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI_SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI_IO0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI_IO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI_IO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI_IO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_OIL_PRESSURE_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIGHT_PANNEL_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_TXCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXDV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETNB_RXER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_STBYB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_RED0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_GREEN0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT_BLUE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CAN_ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_USED_PIN_109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_USED_PIN426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEEDO_1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEEDO_1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEEDO_2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEEDO_2N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_2N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUEL_1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUEL_1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUEL_2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUEL_2N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3V3_SW_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_04</t>
+  </si>
+  <si>
+    <t>DIO_06</t>
+  </si>
+  <si>
+    <t>DIO_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASH_FLUID_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LEFT_TT_TT3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHARGE_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT_GAUGE_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT_POINTER_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGHT_POINTER_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGHT_GAUGE_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT_PWM_CTRL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARK_BRAKE_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BL_PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIGHT_PANEL_CTRL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WASH_FLUID_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAKE_FLUID_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI_SCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI_IO0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI_IO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI_IO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI_IO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_OIL_PRESSURE_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIGHT_PANNEL_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXD3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXD0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_TXCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXD3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXD0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXDV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETNB_RXER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RESET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_STBYB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_RED0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_CLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_GREEN0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFT_BLUE0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_CAN_ERR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIO_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO_USED_PIN_109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO_USED_PIN426</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO_USED_PIN427</t>
-  </si>
-  <si>
-    <t>SPEEDO_1P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEEDO_1N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEEDO_2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEEDO_2N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP_1P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP_1N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP_2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP_2N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUEL_1P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUEL_1N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUEL_2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUEL_2N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3V3_SW_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIO_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIO_04</t>
-  </si>
-  <si>
-    <t>DIO_06</t>
+    <t>AMP_MUTE</t>
   </si>
   <si>
     <t>DIO_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIO_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGA</t>
+    <t>NO_USED_PIN_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_USED_PIN_110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,7 +1375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +1537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2486,7 +2492,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2676,6 +2682,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="1" xfId="139" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="258">
@@ -3300,10 +3309,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3717,7 +3726,7 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
@@ -4543,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D20" s="21">
         <v>0</v>
@@ -6207,10 +6216,10 @@
         <v>69</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="D44" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="45">
         <v>0</v>
@@ -6219,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="45">
         <v>0</v>
@@ -6294,7 +6303,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="45">
         <v>1</v>
@@ -6517,7 +6526,7 @@
         <v>31</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="45">
         <v>0</v>
@@ -6604,7 +6613,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" s="45">
         <v>0</v>
@@ -6691,7 +6700,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="45">
         <v>0</v>
@@ -6778,7 +6787,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="45">
         <v>0</v>
@@ -6865,7 +6874,7 @@
         <v>19</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" s="45">
         <v>0</v>
@@ -6952,7 +6961,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="45">
         <v>0</v>
@@ -7039,7 +7048,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" s="45">
         <v>0</v>
@@ -7126,7 +7135,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" s="45">
         <v>0</v>
@@ -7213,7 +7222,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58" s="45">
         <v>0</v>
@@ -7300,7 +7309,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D59" s="45">
         <v>0</v>
@@ -7387,7 +7396,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="D60" s="45">
         <v>0</v>
@@ -7405,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="47">
         <v>0</v>
       </c>
       <c r="K60" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="45">
         <v>0</v>
@@ -7448,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="26">
         <v>0</v>
@@ -7474,7 +7483,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D61" s="45">
         <v>0</v>
@@ -7697,7 +7706,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" s="45">
         <v>1</v>
@@ -7784,7 +7793,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D67" s="45">
         <v>0</v>
@@ -7871,7 +7880,7 @@
         <v>37</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="45">
         <v>0</v>
@@ -7958,7 +7967,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="D69" s="45">
         <v>0</v>
@@ -8181,7 +8190,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D74" s="45">
         <v>1</v>
@@ -8268,7 +8277,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D75" s="45">
         <v>1</v>
@@ -8355,7 +8364,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D76" s="45">
         <v>1</v>
@@ -8442,7 +8451,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D77" s="45">
         <v>1</v>
@@ -8529,7 +8538,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D78" s="45">
         <v>1</v>
@@ -8616,7 +8625,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D79" s="45">
         <v>1</v>
@@ -8703,7 +8712,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D80" s="45">
         <v>1</v>
@@ -8790,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D81" s="45">
         <v>1</v>
@@ -8877,7 +8886,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D82" s="45">
         <v>1</v>
@@ -8964,7 +8973,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D83" s="45">
         <v>1</v>
@@ -9051,7 +9060,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D84" s="45">
         <v>1</v>
@@ -9138,7 +9147,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D85" s="45">
         <v>1</v>
@@ -9361,7 +9370,7 @@
         <v>84</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D90" s="45">
         <v>0</v>
@@ -9438,7 +9447,7 @@
       </c>
       <c r="AC90" s="22"/>
       <c r="AD90" s="49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AE90" s="25">
         <v>8</v>
@@ -9452,7 +9461,7 @@
         <v>81</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D91" s="45">
         <v>0</v>
@@ -9539,7 +9548,7 @@
         <v>85</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D92" s="45">
         <v>0</v>
@@ -9626,7 +9635,7 @@
         <v>86</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D93" s="45">
         <v>0</v>
@@ -9713,7 +9722,7 @@
         <v>87</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D94" s="45">
         <v>0</v>
@@ -9800,7 +9809,7 @@
         <v>88</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D95" s="45">
         <v>0</v>
@@ -9887,7 +9896,7 @@
         <v>89</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D96" s="45">
         <v>1</v>
@@ -9974,7 +9983,7 @@
         <v>90</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D97" s="45">
         <v>0</v>
@@ -10051,7 +10060,7 @@
       </c>
       <c r="AC97" s="22"/>
       <c r="AD97" s="49" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AE97" s="25">
         <v>8</v>
@@ -10065,7 +10074,7 @@
         <v>91</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D98" s="45">
         <v>1</v>
@@ -10152,7 +10161,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D99" s="45">
         <v>0</v>
@@ -10238,14 +10247,14 @@
       <c r="B100" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>220</v>
+      <c r="C100" s="64" t="s">
+        <v>300</v>
       </c>
       <c r="D100" s="45">
         <v>0</v>
       </c>
       <c r="E100" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="45">
         <v>0</v>
@@ -10257,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="47">
         <v>0</v>
@@ -10282,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="26">
         <v>0</v>
@@ -10294,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W100" s="28">
         <v>0</v>
@@ -10315,12 +10324,8 @@
         <v>0</v>
       </c>
       <c r="AC100" s="22"/>
-      <c r="AD100" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE100" s="25">
-        <v>8</v>
-      </c>
+      <c r="AD100" s="49"/>
+      <c r="AE100" s="25"/>
     </row>
     <row r="101" spans="1:31" s="48" customFormat="1">
       <c r="A101" s="58">
@@ -10330,7 +10335,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D101" s="45">
         <v>0</v>
@@ -10407,7 +10412,7 @@
       </c>
       <c r="AC101" s="22"/>
       <c r="AD101" s="49" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AE101" s="25">
         <v>8</v>
@@ -10491,7 +10496,7 @@
         <v>97</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D106" s="60">
         <v>1</v>
@@ -10578,7 +10583,7 @@
         <v>98</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D107" s="60">
         <v>1</v>
@@ -10665,7 +10670,7 @@
         <v>99</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D108" s="60">
         <v>1</v>
@@ -10752,7 +10757,7 @@
         <v>100</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D109" s="60">
         <v>1</v>
@@ -10839,7 +10844,7 @@
         <v>101</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D110" s="60">
         <v>1</v>
@@ -10926,7 +10931,7 @@
         <v>102</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D111" s="60">
         <v>1</v>
@@ -11013,7 +11018,7 @@
         <v>103</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D112" s="45">
         <v>0</v>
@@ -11100,7 +11105,7 @@
         <v>104</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D113" s="45">
         <v>0</v>
@@ -11187,7 +11192,7 @@
         <v>105</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D114" s="45">
         <v>0</v>
@@ -11264,7 +11269,7 @@
       </c>
       <c r="AC114" s="22"/>
       <c r="AD114" s="49" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AE114" s="25">
         <v>8</v>
@@ -11278,7 +11283,7 @@
         <v>106</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D115" s="45">
         <v>0</v>
@@ -11355,7 +11360,7 @@
       </c>
       <c r="AC115" s="22"/>
       <c r="AD115" s="49" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AE115" s="49">
         <v>8</v>
@@ -11437,7 +11442,7 @@
         <v>107</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D120" s="45">
         <v>1</v>
@@ -11524,7 +11529,7 @@
         <v>108</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D121" s="45">
         <v>1</v>
@@ -11611,7 +11616,7 @@
         <v>109</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D122" s="45">
         <v>1</v>
@@ -11698,7 +11703,7 @@
         <v>110</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D123" s="45">
         <v>1</v>
@@ -11785,7 +11790,7 @@
         <v>111</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D124" s="45">
         <v>1</v>
@@ -11872,7 +11877,7 @@
         <v>112</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D125" s="45">
         <v>1</v>
@@ -11959,7 +11964,7 @@
         <v>113</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D126" s="45">
         <v>1</v>
@@ -12046,13 +12051,13 @@
         <v>114</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D127" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="45">
         <v>0</v>
@@ -12064,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="47">
         <v>0</v>
@@ -12089,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="R127" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127" s="26">
         <v>0</v>
@@ -12122,8 +12127,12 @@
         <v>0</v>
       </c>
       <c r="AC127" s="22"/>
-      <c r="AD127" s="24"/>
-      <c r="AE127" s="25"/>
+      <c r="AD127" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE127" s="25">
+        <v>8</v>
+      </c>
     </row>
     <row r="128" spans="1:31">
       <c r="A128" s="58">
@@ -12133,7 +12142,7 @@
         <v>115</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D128" s="45">
         <v>1</v>
@@ -12220,7 +12229,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D129" s="45">
         <v>1</v>
@@ -12307,7 +12316,7 @@
         <v>118</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D130" s="45">
         <v>0</v>
@@ -12394,7 +12403,7 @@
         <v>119</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D131" s="45">
         <v>0</v>
@@ -12481,7 +12490,7 @@
         <v>120</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D132" s="45">
         <v>0</v>
@@ -12568,7 +12577,7 @@
         <v>121</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D133" s="45">
         <v>0</v>
@@ -12655,7 +12664,7 @@
         <v>122</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D134" s="45">
         <v>0</v>
@@ -12742,7 +12751,7 @@
         <v>123</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D135" s="45">
         <v>0</v>
@@ -12897,7 +12906,7 @@
         <v>124</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D140" s="45">
         <v>0</v>
@@ -12984,7 +12993,7 @@
         <v>117</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D141" s="45">
         <v>0</v>
@@ -13139,7 +13148,7 @@
         <v>125</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D146" s="45">
         <v>1</v>
@@ -13226,7 +13235,7 @@
         <v>126</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D147" s="45">
         <v>1</v>
@@ -13313,7 +13322,7 @@
         <v>127</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D148" s="45">
         <v>1</v>
@@ -13400,7 +13409,7 @@
         <v>128</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D149" s="45">
         <v>1</v>
@@ -13487,7 +13496,7 @@
         <v>129</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D150" s="45">
         <v>1</v>
@@ -13574,7 +13583,7 @@
         <v>130</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D151" s="45">
         <v>1</v>
@@ -13661,7 +13670,7 @@
         <v>131</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D152" s="45">
         <v>1</v>
@@ -13748,7 +13757,7 @@
         <v>132</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D153" s="45">
         <v>1</v>
@@ -13835,7 +13844,7 @@
         <v>133</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D154" s="45">
         <v>1</v>
@@ -13922,7 +13931,7 @@
         <v>134</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D155" s="45">
         <v>1</v>
@@ -14009,7 +14018,7 @@
         <v>136</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D156" s="45">
         <v>1</v>
@@ -14096,7 +14105,7 @@
         <v>137</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D157" s="45">
         <v>1</v>
@@ -14253,7 +14262,7 @@
         <v>138</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D162" s="45">
         <v>1</v>
@@ -14340,7 +14349,7 @@
         <v>135</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D163" s="45">
         <v>1</v>
@@ -14427,7 +14436,7 @@
         <v>139</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D164" s="45">
         <v>1</v>
@@ -14514,7 +14523,7 @@
         <v>140</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D165" s="45">
         <v>1</v>
@@ -14601,7 +14610,7 @@
         <v>141</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D166" s="45">
         <v>1</v>
@@ -14688,7 +14697,7 @@
         <v>142</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D167" s="45">
         <v>1</v>
@@ -14775,7 +14784,7 @@
         <v>143</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D168" s="45">
         <v>1</v>
@@ -14862,7 +14871,7 @@
         <v>144</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D169" s="45">
         <v>1</v>
@@ -14949,7 +14958,7 @@
         <v>145</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D170" s="45">
         <v>1</v>
@@ -15036,7 +15045,7 @@
         <v>146</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D171" s="45">
         <v>1</v>
@@ -15123,7 +15132,7 @@
         <v>147</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D172" s="45">
         <v>1</v>
@@ -15210,7 +15219,7 @@
         <v>148</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D173" s="45">
         <v>1</v>
@@ -15297,7 +15306,7 @@
         <v>149</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D174" s="45">
         <v>1</v>
@@ -15384,7 +15393,7 @@
         <v>150</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D175" s="45">
         <v>1</v>
@@ -15541,7 +15550,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D180" s="21">
         <v>0</v>
@@ -15628,7 +15637,7 @@
         <v>171</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D181" s="21">
         <v>0</v>
@@ -15715,7 +15724,7 @@
         <v>172</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D182" s="21">
         <v>0</v>
@@ -15802,7 +15811,7 @@
         <v>173</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D183" s="21">
         <v>0</v>
@@ -15889,7 +15898,7 @@
         <v>174</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D184" s="21">
         <v>0</v>
@@ -15976,7 +15985,7 @@
         <v>175</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D185" s="21">
         <v>0</v>

--- a/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
+++ b/GPIO/RH850D1M1H_176Pin_IO_Config.xlsx
@@ -3309,10 +3309,10 @@
   <dimension ref="A1:AH187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="26">
         <v>0</v>
